--- a/Jogos_do_Dia/2023-01-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
         <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="O2" t="n">
         <v>1.42</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="G3" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
@@ -763,10 +763,10 @@
         <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="N3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.54</v>
@@ -805,28 +805,28 @@
         <v>2.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.49</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1.11</v>
@@ -873,10 +873,10 @@
         <v>2.43</v>
       </c>
       <c r="M4" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -915,28 +915,28 @@
         <v>2.44</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -962,37 +962,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M5" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="N5" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
@@ -1001,13 +1001,13 @@
         <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
         <v>1.11</v>
@@ -1025,22 +1025,22 @@
         <v>2.98</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="G6" t="n">
-        <v>3.02</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="N6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1144,19 +1144,19 @@
         <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF6" t="n">
         <v>1.95</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>1.09</v>
@@ -1313,10 +1313,10 @@
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.49</v>
@@ -1355,28 +1355,28 @@
         <v>3.13</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="9">
@@ -1405,10 +1405,10 @@
         <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N9" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="N10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.88</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>3.56</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>4.43</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         <v>4.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -1795,13 +1795,13 @@
         <v>3.65</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AD12" t="n">
         <v>1.22</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
         <v>1.09</v>
@@ -1905,28 +1905,28 @@
         <v>3.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2015,28 +2015,28 @@
         <v>2.61</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="15">
@@ -2125,28 +2125,28 @@
         <v>2.67</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -2235,28 +2235,28 @@
         <v>3.08</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
@@ -2345,28 +2345,28 @@
         <v>2.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="18">
@@ -2455,28 +2455,28 @@
         <v>2.79</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
@@ -2565,28 +2565,28 @@
         <v>2.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -2675,28 +2675,28 @@
         <v>2.93</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
@@ -2785,28 +2785,28 @@
         <v>2.98</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G23" t="n">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.92</v>
+        <v>6.5</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3052,37 +3052,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="G24" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="N24" t="n">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.5</v>
@@ -3091,13 +3091,13 @@
         <v>2.5</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V24" t="n">
         <v>1.11</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3183,10 +3183,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3234,19 +3234,19 @@
         <v>1.59</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="26">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
@@ -3293,10 +3293,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
         <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.08</v>
@@ -3406,7 +3406,7 @@
         <v>2.05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3513,10 +3513,10 @@
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="N28" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G29" t="n">
         <v>3.5</v>
@@ -3623,10 +3623,10 @@
         <v>3.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="N29" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
         <v>1.04</v>
@@ -3733,10 +3733,10 @@
         <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="N30" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>1.12</v>
@@ -3837,10 +3837,10 @@
         <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="L31" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="M31" t="n">
         <v>2.66</v>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
@@ -3953,10 +3953,10 @@
         <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N32" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G33" t="n">
-        <v>3.42</v>
+        <v>3.55</v>
       </c>
       <c r="H33" t="n">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>6.45</v>
+        <v>6.25</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -4171,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="N34" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4368,10 +4368,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="G36" t="n">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
@@ -4389,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N36" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.44</v>
@@ -4431,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD36" t="n">
         <v>1.32</v>

--- a/Jogos_do_Dia/2023-01-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.42</v>
@@ -680,10 +680,10 @@
         <v>1.47</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>1.43</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
@@ -763,10 +763,10 @@
         <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O3" t="n">
         <v>1.54</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.11</v>
@@ -867,16 +867,16 @@
         <v>5.74</v>
       </c>
       <c r="K4" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="L4" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="N7" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>1.09</v>
@@ -1313,7 +1313,7 @@
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
         <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="N10" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         <v>4.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N12" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="I13" t="n">
         <v>1.09</v>
@@ -1857,16 +1857,16 @@
         <v>6.5</v>
       </c>
       <c r="K13" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="L13" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M13" t="n">
         <v>2.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.54</v>
@@ -2794,7 +2794,7 @@
         <v>2.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE21" t="n">
         <v>1.39</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="N22" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>4.82</v>
       </c>
       <c r="H23" t="n">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="N23" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I24" t="n">
         <v>1.03</v>
@@ -3085,10 +3085,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S24" t="n">
         <v>1.38</v>
@@ -3115,28 +3115,28 @@
         <v>3.32</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3183,10 +3183,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
         <v>1.02</v>
@@ -3293,10 +3293,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I27" t="n">
         <v>1.08</v>
@@ -3403,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
         <v>1.04</v>
@@ -3513,10 +3513,10 @@
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3623,10 +3623,10 @@
         <v>3.2</v>
       </c>
       <c r="M29" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="N29" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.6</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -3733,10 +3733,10 @@
         <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N30" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
         <v>1.12</v>
@@ -3837,16 +3837,16 @@
         <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="L31" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="M31" t="n">
-        <v>2.66</v>
+        <v>2.89</v>
       </c>
       <c r="N31" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="O31" t="n">
         <v>1.6</v>
@@ -3906,7 +3906,7 @@
         <v>2.63</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="32">
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I32" t="n">
         <v>1.07</v>
@@ -3953,10 +3953,10 @@
         <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="G33" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -4171,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4368,10 +4368,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
@@ -4389,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O36" t="n">
         <v>1.44</v>
